--- a/DM/databank/banking/deal_management/DealManagement_Test_39767.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39767.xlsx
@@ -2074,25 +2074,118 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2100,99 +2193,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2487,7 +2487,7 @@
   <dimension ref="A1:DN164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3357,11 +3357,11 @@
       <c r="I20" s="14"/>
     </row>
     <row r="22" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="129" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
     </row>
     <row r="23" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
@@ -3415,24 +3415,24 @@
       </c>
     </row>
     <row r="27" spans="1:117" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="118"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="131"/>
       <c r="BM27" s="16"/>
       <c r="BN27" s="16"/>
       <c r="BO27" s="16"/>
@@ -6309,12 +6309,12 @@
       <c r="DM60" s="16"/>
     </row>
     <row r="62" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="119" t="s">
+      <c r="A62" s="132" t="s">
         <v>255</v>
       </c>
-      <c r="B62" s="120"/>
-      <c r="C62" s="120"/>
-      <c r="D62" s="121"/>
+      <c r="B62" s="133"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="134"/>
     </row>
     <row r="63" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
@@ -6352,17 +6352,17 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="119" t="s">
+      <c r="A66" s="132" t="s">
         <v>237</v>
       </c>
-      <c r="B66" s="120"/>
-      <c r="C66" s="120"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="121"/>
+      <c r="B66" s="133"/>
+      <c r="C66" s="133"/>
+      <c r="D66" s="133"/>
+      <c r="E66" s="133"/>
+      <c r="F66" s="133"/>
+      <c r="G66" s="133"/>
+      <c r="H66" s="133"/>
+      <c r="I66" s="134"/>
     </row>
     <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
@@ -6436,11 +6436,11 @@
       <c r="I68" s="31"/>
       <c r="J68" s="40" t="str">
         <f ca="1">TEXT(TODAY()-30,"DD-MMM-YY")</f>
-        <v>03-Jul-23</v>
+        <v>09-Jul-23</v>
       </c>
       <c r="K68" s="40" t="str">
         <f ca="1">TEXT(TODAY()-1,"DD-MMM-YY")</f>
-        <v>01-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="L68" s="32" t="s">
         <v>168</v>
@@ -6480,11 +6480,11 @@
       <c r="I69" s="31"/>
       <c r="J69" s="40" t="str">
         <f ca="1">TEXT(TODAY()-30,"DD-MMM-YY")</f>
-        <v>03-Jul-23</v>
+        <v>09-Jul-23</v>
       </c>
       <c r="K69" s="40" t="str">
         <f ca="1">TEXT(TODAY()-1,"DD-MMM-YY")</f>
-        <v>01-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="L69" s="32" t="s">
         <v>168</v>
@@ -6524,11 +6524,11 @@
       <c r="I70" s="31"/>
       <c r="J70" s="40" t="str">
         <f t="shared" ref="J70:J79" ca="1" si="0">TEXT(TODAY()-30,"DD-MMM-YY")</f>
-        <v>03-Jul-23</v>
+        <v>09-Jul-23</v>
       </c>
       <c r="K70" s="40" t="str">
         <f t="shared" ref="K70:K79" ca="1" si="1">TEXT(TODAY()-1,"DD-MMM-YY")</f>
-        <v>01-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="L70" s="32" t="s">
         <v>168</v>
@@ -6568,11 +6568,11 @@
       <c r="I71" s="31"/>
       <c r="J71" s="40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03-Jul-23</v>
+        <v>09-Jul-23</v>
       </c>
       <c r="K71" s="40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="L71" s="32" t="s">
         <v>168</v>
@@ -6612,11 +6612,11 @@
       <c r="I72" s="31"/>
       <c r="J72" s="40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03-Jul-23</v>
+        <v>09-Jul-23</v>
       </c>
       <c r="K72" s="40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="L72" s="32" t="s">
         <v>168</v>
@@ -6656,11 +6656,11 @@
       <c r="I73" s="31"/>
       <c r="J73" s="40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03-Jul-23</v>
+        <v>09-Jul-23</v>
       </c>
       <c r="K73" s="40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="L73" s="32" t="s">
         <v>168</v>
@@ -6700,11 +6700,11 @@
       <c r="I74" s="31"/>
       <c r="J74" s="40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03-Jul-23</v>
+        <v>09-Jul-23</v>
       </c>
       <c r="K74" s="40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="L74" s="32" t="s">
         <v>168</v>
@@ -6744,11 +6744,11 @@
       <c r="I75" s="31"/>
       <c r="J75" s="40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03-Jul-23</v>
+        <v>09-Jul-23</v>
       </c>
       <c r="K75" s="40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="L75" s="32" t="s">
         <v>168</v>
@@ -6788,11 +6788,11 @@
       <c r="I76" s="31"/>
       <c r="J76" s="40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03-Jul-23</v>
+        <v>09-Jul-23</v>
       </c>
       <c r="K76" s="40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="L76" s="32" t="s">
         <v>168</v>
@@ -6832,11 +6832,11 @@
       <c r="I77" s="31"/>
       <c r="J77" s="40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03-Jul-23</v>
+        <v>09-Jul-23</v>
       </c>
       <c r="K77" s="40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="L77" s="32" t="s">
         <v>168</v>
@@ -6876,11 +6876,11 @@
       <c r="I78" s="31"/>
       <c r="J78" s="40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03-Jul-23</v>
+        <v>09-Jul-23</v>
       </c>
       <c r="K78" s="40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="L78" s="32" t="s">
         <v>168</v>
@@ -6920,11 +6920,11 @@
       <c r="I79" s="31"/>
       <c r="J79" s="40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03-Jul-23</v>
+        <v>09-Jul-23</v>
       </c>
       <c r="K79" s="40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="L79" s="32" t="s">
         <v>168</v>
@@ -6940,27 +6940,27 @@
       </c>
     </row>
     <row r="81" spans="1:78" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="104" t="s">
+      <c r="A81" s="135" t="s">
         <v>260</v>
       </c>
-      <c r="B81" s="104"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="104"/>
-      <c r="E81" s="104"/>
-      <c r="F81" s="104"/>
-      <c r="G81" s="104"/>
-      <c r="H81" s="104"/>
-      <c r="I81" s="104"/>
-      <c r="J81" s="104"/>
-      <c r="K81" s="104"/>
+      <c r="B81" s="135"/>
+      <c r="C81" s="135"/>
+      <c r="D81" s="135"/>
+      <c r="E81" s="135"/>
+      <c r="F81" s="135"/>
+      <c r="G81" s="135"/>
+      <c r="H81" s="135"/>
+      <c r="I81" s="135"/>
+      <c r="J81" s="135"/>
+      <c r="K81" s="135"/>
     </row>
     <row r="83" spans="1:78" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="105" t="s">
+      <c r="A83" s="136" t="s">
         <v>261</v>
       </c>
-      <c r="B83" s="105"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="105"/>
+      <c r="B83" s="136"/>
+      <c r="C83" s="136"/>
+      <c r="D83" s="136"/>
     </row>
     <row r="84" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A84" s="41" t="s">
@@ -7089,33 +7089,33 @@
       <c r="S88" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="T88" s="133" t="s">
+      <c r="T88" s="117" t="s">
         <v>286</v>
       </c>
-      <c r="U88" s="134"/>
-      <c r="V88" s="135"/>
-      <c r="W88" s="133" t="s">
+      <c r="U88" s="118"/>
+      <c r="V88" s="119"/>
+      <c r="W88" s="117" t="s">
         <v>287</v>
       </c>
-      <c r="X88" s="135"/>
+      <c r="X88" s="119"/>
       <c r="Y88" s="47"/>
-      <c r="Z88" s="130" t="s">
+      <c r="Z88" s="114" t="s">
         <v>288</v>
       </c>
-      <c r="AA88" s="131"/>
-      <c r="AB88" s="131"/>
-      <c r="AC88" s="131"/>
-      <c r="AD88" s="131"/>
-      <c r="AE88" s="131"/>
-      <c r="AF88" s="132"/>
-      <c r="AG88" s="130" t="s">
+      <c r="AA88" s="115"/>
+      <c r="AB88" s="115"/>
+      <c r="AC88" s="115"/>
+      <c r="AD88" s="115"/>
+      <c r="AE88" s="115"/>
+      <c r="AF88" s="116"/>
+      <c r="AG88" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="AH88" s="131"/>
-      <c r="AI88" s="131"/>
-      <c r="AJ88" s="131"/>
-      <c r="AK88" s="131"/>
-      <c r="AL88" s="132"/>
+      <c r="AH88" s="115"/>
+      <c r="AI88" s="115"/>
+      <c r="AJ88" s="115"/>
+      <c r="AK88" s="115"/>
+      <c r="AL88" s="116"/>
       <c r="AM88" s="48"/>
       <c r="AN88" s="49"/>
       <c r="AO88" s="49"/>
@@ -7301,11 +7301,11 @@
       </c>
       <c r="G90" s="56" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="H90" s="56" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="I90" s="54"/>
       <c r="J90" s="54">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="C94" s="56" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-16</v>
+        <v>2023-09-22</v>
       </c>
       <c r="D94" s="33" t="s">
         <v>153</v>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="C95" s="56" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-16</v>
+        <v>2023-09-22</v>
       </c>
       <c r="D95" s="33" t="s">
         <v>153</v>
@@ -7658,63 +7658,63 @@
       <c r="BZ95" s="50"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A97" s="97" t="s">
+      <c r="A97" s="122" t="s">
         <v>356</v>
       </c>
-      <c r="B97" s="98"/>
-      <c r="C97" s="98"/>
-      <c r="D97" s="98"/>
-      <c r="E97" s="98"/>
-      <c r="F97" s="98"/>
-      <c r="G97" s="98"/>
-      <c r="H97" s="98"/>
-      <c r="I97" s="98"/>
-      <c r="J97" s="98"/>
+      <c r="B97" s="123"/>
+      <c r="C97" s="123"/>
+      <c r="D97" s="123"/>
+      <c r="E97" s="123"/>
+      <c r="F97" s="123"/>
+      <c r="G97" s="123"/>
+      <c r="H97" s="123"/>
+      <c r="I97" s="123"/>
+      <c r="J97" s="123"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="61"/>
       <c r="B98" s="62"/>
-      <c r="C98" s="124" t="s">
+      <c r="C98" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="D98" s="124"/>
-      <c r="E98" s="124"/>
-      <c r="F98" s="124"/>
-      <c r="G98" s="124"/>
-      <c r="H98" s="124"/>
-      <c r="I98" s="124"/>
-      <c r="J98" s="124"/>
-      <c r="K98" s="124"/>
+      <c r="D98" s="111"/>
+      <c r="E98" s="111"/>
+      <c r="F98" s="111"/>
+      <c r="G98" s="111"/>
+      <c r="H98" s="111"/>
+      <c r="I98" s="111"/>
+      <c r="J98" s="111"/>
+      <c r="K98" s="111"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A99" s="102" t="s">
+      <c r="A99" s="120" t="s">
         <v>333</v>
       </c>
-      <c r="B99" s="102" t="s">
+      <c r="B99" s="120" t="s">
         <v>334</v>
       </c>
-      <c r="C99" s="106" t="s">
+      <c r="C99" s="101" t="s">
         <v>335</v>
       </c>
-      <c r="D99" s="107"/>
-      <c r="E99" s="107"/>
-      <c r="F99" s="108"/>
-      <c r="G99" s="109" t="s">
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="102"/>
+      <c r="G99" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="H99" s="110"/>
-      <c r="I99" s="110"/>
-      <c r="J99" s="111"/>
-      <c r="K99" s="102" t="s">
+      <c r="H99" s="113"/>
+      <c r="I99" s="113"/>
+      <c r="J99" s="104"/>
+      <c r="K99" s="120" t="s">
         <v>337</v>
       </c>
-      <c r="L99" s="102" t="s">
+      <c r="L99" s="120" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="103"/>
-      <c r="B100" s="103"/>
+      <c r="A100" s="121"/>
+      <c r="B100" s="121"/>
       <c r="C100" s="63" t="s">
         <v>339</v>
       </c>
@@ -7739,8 +7739,8 @@
       <c r="J100" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="K100" s="103"/>
-      <c r="L100" s="103"/>
+      <c r="K100" s="121"/>
+      <c r="L100" s="121"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="39" t="s">
@@ -7790,76 +7790,76 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="97" t="s">
+      <c r="A103" s="122" t="s">
         <v>345</v>
       </c>
-      <c r="B103" s="98"/>
-      <c r="C103" s="98"/>
-      <c r="D103" s="98"/>
-      <c r="E103" s="98"/>
-      <c r="F103" s="98"/>
-      <c r="G103" s="98"/>
-      <c r="H103" s="98"/>
-      <c r="I103" s="98"/>
-      <c r="J103" s="98"/>
-      <c r="K103" s="98"/>
-      <c r="L103" s="98"/>
+      <c r="B103" s="123"/>
+      <c r="C103" s="123"/>
+      <c r="D103" s="123"/>
+      <c r="E103" s="123"/>
+      <c r="F103" s="123"/>
+      <c r="G103" s="123"/>
+      <c r="H103" s="123"/>
+      <c r="I103" s="123"/>
+      <c r="J103" s="123"/>
+      <c r="K103" s="123"/>
+      <c r="L103" s="123"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A104" s="99" t="s">
+      <c r="A104" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="B104" s="99" t="s">
+      <c r="B104" s="125" t="s">
         <v>346</v>
       </c>
-      <c r="C104" s="127" t="s">
+      <c r="C104" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D104" s="112" t="s">
+      <c r="D104" s="126" t="s">
         <v>348</v>
       </c>
-      <c r="E104" s="136" t="s">
+      <c r="E104" s="99" t="s">
         <v>332</v>
       </c>
-      <c r="F104" s="136"/>
-      <c r="G104" s="136"/>
-      <c r="H104" s="136"/>
-      <c r="I104" s="115" t="s">
+      <c r="F104" s="99"/>
+      <c r="G104" s="99"/>
+      <c r="H104" s="99"/>
+      <c r="I104" s="100" t="s">
         <v>349</v>
       </c>
-      <c r="J104" s="115"/>
-      <c r="K104" s="115"/>
-      <c r="L104" s="115"/>
+      <c r="J104" s="100"/>
+      <c r="K104" s="100"/>
+      <c r="L104" s="100"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A105" s="100"/>
-      <c r="B105" s="100"/>
-      <c r="C105" s="128"/>
-      <c r="D105" s="113"/>
-      <c r="E105" s="106" t="s">
+      <c r="A105" s="107"/>
+      <c r="B105" s="107"/>
+      <c r="C105" s="109"/>
+      <c r="D105" s="127"/>
+      <c r="E105" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="F105" s="108"/>
-      <c r="G105" s="109" t="s">
+      <c r="F105" s="102"/>
+      <c r="G105" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="H105" s="111"/>
-      <c r="I105" s="106" t="s">
+      <c r="H105" s="104"/>
+      <c r="I105" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="J105" s="108"/>
-      <c r="K105" s="109" t="s">
+      <c r="J105" s="102"/>
+      <c r="K105" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="L105" s="111"/>
+      <c r="L105" s="104"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A106" s="101"/>
-      <c r="B106" s="101" t="s">
+      <c r="A106" s="108"/>
+      <c r="B106" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="C106" s="129"/>
-      <c r="D106" s="114"/>
+      <c r="C106" s="110"/>
+      <c r="D106" s="128"/>
       <c r="E106" s="63" t="s">
         <v>351</v>
       </c>
@@ -7934,61 +7934,61 @@
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A109" s="97" t="s">
+      <c r="A109" s="122" t="s">
         <v>356</v>
       </c>
-      <c r="B109" s="98"/>
-      <c r="C109" s="98"/>
-      <c r="D109" s="98"/>
-      <c r="E109" s="98"/>
-      <c r="F109" s="98"/>
-      <c r="G109" s="98"/>
-      <c r="H109" s="98"/>
-      <c r="I109" s="98"/>
-      <c r="J109" s="98"/>
+      <c r="B109" s="123"/>
+      <c r="C109" s="123"/>
+      <c r="D109" s="123"/>
+      <c r="E109" s="123"/>
+      <c r="F109" s="123"/>
+      <c r="G109" s="123"/>
+      <c r="H109" s="123"/>
+      <c r="I109" s="123"/>
+      <c r="J109" s="123"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" s="61"/>
       <c r="B110" s="62"/>
-      <c r="C110" s="124" t="s">
+      <c r="C110" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="D110" s="124"/>
-      <c r="E110" s="124"/>
-      <c r="F110" s="124"/>
-      <c r="G110" s="124"/>
-      <c r="H110" s="124"/>
-      <c r="I110" s="124"/>
-      <c r="J110" s="124"/>
-      <c r="K110" s="124"/>
+      <c r="D110" s="111"/>
+      <c r="E110" s="111"/>
+      <c r="F110" s="111"/>
+      <c r="G110" s="111"/>
+      <c r="H110" s="111"/>
+      <c r="I110" s="111"/>
+      <c r="J110" s="111"/>
+      <c r="K110" s="111"/>
       <c r="Z110" s="68"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A111" s="102" t="s">
+      <c r="A111" s="120" t="s">
         <v>333</v>
       </c>
-      <c r="B111" s="102" t="s">
+      <c r="B111" s="120" t="s">
         <v>334</v>
       </c>
-      <c r="C111" s="106" t="s">
+      <c r="C111" s="101" t="s">
         <v>335</v>
       </c>
-      <c r="D111" s="107"/>
-      <c r="E111" s="107"/>
-      <c r="F111" s="108"/>
-      <c r="G111" s="109" t="s">
+      <c r="D111" s="112"/>
+      <c r="E111" s="112"/>
+      <c r="F111" s="102"/>
+      <c r="G111" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="H111" s="110"/>
-      <c r="I111" s="110"/>
-      <c r="J111" s="111"/>
-      <c r="K111" s="122" t="s">
+      <c r="H111" s="113"/>
+      <c r="I111" s="113"/>
+      <c r="J111" s="104"/>
+      <c r="K111" s="97" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A112" s="103"/>
-      <c r="B112" s="103"/>
+      <c r="A112" s="121"/>
+      <c r="B112" s="121"/>
       <c r="C112" s="63" t="s">
         <v>339</v>
       </c>
@@ -8013,7 +8013,7 @@
       <c r="J112" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="K112" s="123"/>
+      <c r="K112" s="98"/>
     </row>
     <row r="113" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A113" s="54" t="s">
@@ -8124,7 +8124,7 @@
       <c r="I117" s="71"/>
       <c r="J117" s="72">
         <f ca="1">TODAY()</f>
-        <v>45140</v>
+        <v>45146</v>
       </c>
       <c r="K117" s="72">
         <v>234</v>
@@ -8134,26 +8134,26 @@
       </c>
     </row>
     <row r="119" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A119" s="125" t="s">
+      <c r="A119" s="105" t="s">
         <v>403</v>
       </c>
-      <c r="B119" s="126"/>
-      <c r="C119" s="126"/>
-      <c r="D119" s="126"/>
-      <c r="E119" s="126"/>
-      <c r="F119" s="126"/>
-      <c r="G119" s="126"/>
-      <c r="H119" s="126"/>
-      <c r="I119" s="126"/>
-      <c r="J119" s="126"/>
-      <c r="K119" s="126"/>
-      <c r="L119" s="126"/>
-      <c r="M119" s="126"/>
-      <c r="N119" s="126"/>
-      <c r="O119" s="126"/>
-      <c r="P119" s="126"/>
-      <c r="Q119" s="126"/>
-      <c r="R119" s="126"/>
+      <c r="B119" s="106"/>
+      <c r="C119" s="106"/>
+      <c r="D119" s="106"/>
+      <c r="E119" s="106"/>
+      <c r="F119" s="106"/>
+      <c r="G119" s="106"/>
+      <c r="H119" s="106"/>
+      <c r="I119" s="106"/>
+      <c r="J119" s="106"/>
+      <c r="K119" s="106"/>
+      <c r="L119" s="106"/>
+      <c r="M119" s="106"/>
+      <c r="N119" s="106"/>
+      <c r="O119" s="106"/>
+      <c r="P119" s="106"/>
+      <c r="Q119" s="106"/>
+      <c r="R119" s="106"/>
       <c r="S119" s="78"/>
       <c r="T119" s="78"/>
       <c r="U119" s="78"/>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="D121" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E121" s="77"/>
       <c r="F121" s="77" t="s">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="D122" s="76" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E122" s="75"/>
       <c r="F122" s="75" t="s">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="D123" s="80" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-01</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E123" s="80"/>
       <c r="F123" s="80" t="s">
@@ -8438,26 +8438,26 @@
       </c>
     </row>
     <row r="125" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A125" s="125" t="s">
+      <c r="A125" s="105" t="s">
         <v>402</v>
       </c>
-      <c r="B125" s="126"/>
-      <c r="C125" s="126"/>
-      <c r="D125" s="126"/>
-      <c r="E125" s="126"/>
-      <c r="F125" s="126"/>
-      <c r="G125" s="126"/>
-      <c r="H125" s="126"/>
-      <c r="I125" s="126"/>
-      <c r="J125" s="126"/>
-      <c r="K125" s="126"/>
-      <c r="L125" s="126"/>
-      <c r="M125" s="126"/>
-      <c r="N125" s="126"/>
-      <c r="O125" s="126"/>
-      <c r="P125" s="126"/>
-      <c r="Q125" s="126"/>
-      <c r="R125" s="126"/>
+      <c r="B125" s="106"/>
+      <c r="C125" s="106"/>
+      <c r="D125" s="106"/>
+      <c r="E125" s="106"/>
+      <c r="F125" s="106"/>
+      <c r="G125" s="106"/>
+      <c r="H125" s="106"/>
+      <c r="I125" s="106"/>
+      <c r="J125" s="106"/>
+      <c r="K125" s="106"/>
+      <c r="L125" s="106"/>
+      <c r="M125" s="106"/>
+      <c r="N125" s="106"/>
+      <c r="O125" s="106"/>
+      <c r="P125" s="106"/>
+      <c r="Q125" s="106"/>
+      <c r="R125" s="106"/>
       <c r="S125" s="79"/>
       <c r="T125" s="79"/>
       <c r="U125" s="79"/>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="D127" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E127" s="77"/>
       <c r="F127" s="77" t="s">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="D128" s="76" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E128" s="75"/>
       <c r="F128" s="75" t="s">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="D129" s="80" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-01</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E129" s="80"/>
       <c r="F129" s="80" t="s">
@@ -8746,26 +8746,26 @@
       </c>
     </row>
     <row r="131" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A131" s="125" t="s">
+      <c r="A131" s="105" t="s">
         <v>404</v>
       </c>
-      <c r="B131" s="126"/>
-      <c r="C131" s="126"/>
-      <c r="D131" s="126"/>
-      <c r="E131" s="126"/>
-      <c r="F131" s="126"/>
-      <c r="G131" s="126"/>
-      <c r="H131" s="126"/>
-      <c r="I131" s="126"/>
-      <c r="J131" s="126"/>
-      <c r="K131" s="126"/>
-      <c r="L131" s="126"/>
-      <c r="M131" s="126"/>
-      <c r="N131" s="126"/>
-      <c r="O131" s="126"/>
-      <c r="P131" s="126"/>
-      <c r="Q131" s="126"/>
-      <c r="R131" s="126"/>
+      <c r="B131" s="106"/>
+      <c r="C131" s="106"/>
+      <c r="D131" s="106"/>
+      <c r="E131" s="106"/>
+      <c r="F131" s="106"/>
+      <c r="G131" s="106"/>
+      <c r="H131" s="106"/>
+      <c r="I131" s="106"/>
+      <c r="J131" s="106"/>
+      <c r="K131" s="106"/>
+      <c r="L131" s="106"/>
+      <c r="M131" s="106"/>
+      <c r="N131" s="106"/>
+      <c r="O131" s="106"/>
+      <c r="P131" s="106"/>
+      <c r="Q131" s="106"/>
+      <c r="R131" s="106"/>
       <c r="S131" s="82"/>
       <c r="T131" s="82"/>
       <c r="U131" s="82"/>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="D133" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-02</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E133" s="77"/>
       <c r="F133" s="77" t="str">
@@ -8990,7 +8990,7 @@
       <c r="I137" s="71"/>
       <c r="J137" s="72">
         <f ca="1">TODAY()</f>
-        <v>45140</v>
+        <v>45146</v>
       </c>
       <c r="K137" s="72">
         <v>234</v>
@@ -9066,7 +9066,7 @@
       <c r="I141" s="71"/>
       <c r="J141" s="72">
         <f ca="1">TODAY()</f>
-        <v>45140</v>
+        <v>45146</v>
       </c>
       <c r="K141" s="72">
         <v>234</v>
@@ -9076,76 +9076,76 @@
       </c>
     </row>
     <row r="143" spans="1:47" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="97" t="s">
+      <c r="A143" s="122" t="s">
         <v>345</v>
       </c>
-      <c r="B143" s="98"/>
-      <c r="C143" s="98"/>
-      <c r="D143" s="98"/>
-      <c r="E143" s="98"/>
-      <c r="F143" s="98"/>
-      <c r="G143" s="98"/>
-      <c r="H143" s="98"/>
-      <c r="I143" s="98"/>
-      <c r="J143" s="98"/>
-      <c r="K143" s="98"/>
-      <c r="L143" s="98"/>
+      <c r="B143" s="123"/>
+      <c r="C143" s="123"/>
+      <c r="D143" s="123"/>
+      <c r="E143" s="123"/>
+      <c r="F143" s="123"/>
+      <c r="G143" s="123"/>
+      <c r="H143" s="123"/>
+      <c r="I143" s="123"/>
+      <c r="J143" s="123"/>
+      <c r="K143" s="123"/>
+      <c r="L143" s="123"/>
     </row>
     <row r="144" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A144" s="99" t="s">
+      <c r="A144" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="B144" s="99" t="s">
+      <c r="B144" s="125" t="s">
         <v>346</v>
       </c>
-      <c r="C144" s="127" t="s">
+      <c r="C144" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D144" s="112" t="s">
+      <c r="D144" s="126" t="s">
         <v>348</v>
       </c>
-      <c r="E144" s="136" t="s">
+      <c r="E144" s="99" t="s">
         <v>332</v>
       </c>
-      <c r="F144" s="136"/>
-      <c r="G144" s="136"/>
-      <c r="H144" s="136"/>
-      <c r="I144" s="115" t="s">
+      <c r="F144" s="99"/>
+      <c r="G144" s="99"/>
+      <c r="H144" s="99"/>
+      <c r="I144" s="100" t="s">
         <v>349</v>
       </c>
-      <c r="J144" s="115"/>
-      <c r="K144" s="115"/>
-      <c r="L144" s="115"/>
+      <c r="J144" s="100"/>
+      <c r="K144" s="100"/>
+      <c r="L144" s="100"/>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A145" s="100"/>
-      <c r="B145" s="100"/>
-      <c r="C145" s="128"/>
-      <c r="D145" s="113"/>
-      <c r="E145" s="106" t="s">
+      <c r="A145" s="107"/>
+      <c r="B145" s="107"/>
+      <c r="C145" s="109"/>
+      <c r="D145" s="127"/>
+      <c r="E145" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="F145" s="108"/>
-      <c r="G145" s="109" t="s">
+      <c r="F145" s="102"/>
+      <c r="G145" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="H145" s="111"/>
-      <c r="I145" s="106" t="s">
+      <c r="H145" s="104"/>
+      <c r="I145" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="J145" s="108"/>
-      <c r="K145" s="109" t="s">
+      <c r="J145" s="102"/>
+      <c r="K145" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="L145" s="111"/>
+      <c r="L145" s="104"/>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A146" s="101"/>
-      <c r="B146" s="101" t="s">
+      <c r="A146" s="108"/>
+      <c r="B146" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="129"/>
-      <c r="D146" s="114"/>
+      <c r="C146" s="110"/>
+      <c r="D146" s="128"/>
       <c r="E146" s="63" t="s">
         <v>351</v>
       </c>
@@ -9220,61 +9220,61 @@
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A149" s="97" t="s">
+      <c r="A149" s="122" t="s">
         <v>356</v>
       </c>
-      <c r="B149" s="98"/>
-      <c r="C149" s="98"/>
-      <c r="D149" s="98"/>
-      <c r="E149" s="98"/>
-      <c r="F149" s="98"/>
-      <c r="G149" s="98"/>
-      <c r="H149" s="98"/>
-      <c r="I149" s="98"/>
-      <c r="J149" s="98"/>
+      <c r="B149" s="123"/>
+      <c r="C149" s="123"/>
+      <c r="D149" s="123"/>
+      <c r="E149" s="123"/>
+      <c r="F149" s="123"/>
+      <c r="G149" s="123"/>
+      <c r="H149" s="123"/>
+      <c r="I149" s="123"/>
+      <c r="J149" s="123"/>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A150" s="83"/>
       <c r="B150" s="84"/>
-      <c r="C150" s="124" t="s">
+      <c r="C150" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="D150" s="124"/>
-      <c r="E150" s="124"/>
-      <c r="F150" s="124"/>
-      <c r="G150" s="124"/>
-      <c r="H150" s="124"/>
-      <c r="I150" s="124"/>
-      <c r="J150" s="124"/>
-      <c r="K150" s="124"/>
+      <c r="D150" s="111"/>
+      <c r="E150" s="111"/>
+      <c r="F150" s="111"/>
+      <c r="G150" s="111"/>
+      <c r="H150" s="111"/>
+      <c r="I150" s="111"/>
+      <c r="J150" s="111"/>
+      <c r="K150" s="111"/>
       <c r="Z150" s="68"/>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A151" s="102" t="s">
+      <c r="A151" s="120" t="s">
         <v>333</v>
       </c>
-      <c r="B151" s="102" t="s">
+      <c r="B151" s="120" t="s">
         <v>334</v>
       </c>
-      <c r="C151" s="106" t="s">
+      <c r="C151" s="101" t="s">
         <v>335</v>
       </c>
-      <c r="D151" s="107"/>
-      <c r="E151" s="107"/>
-      <c r="F151" s="108"/>
-      <c r="G151" s="109" t="s">
+      <c r="D151" s="112"/>
+      <c r="E151" s="112"/>
+      <c r="F151" s="102"/>
+      <c r="G151" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="H151" s="110"/>
-      <c r="I151" s="110"/>
-      <c r="J151" s="111"/>
-      <c r="K151" s="122" t="s">
+      <c r="H151" s="113"/>
+      <c r="I151" s="113"/>
+      <c r="J151" s="104"/>
+      <c r="K151" s="97" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A152" s="103"/>
-      <c r="B152" s="103"/>
+      <c r="A152" s="121"/>
+      <c r="B152" s="121"/>
       <c r="C152" s="63" t="s">
         <v>339</v>
       </c>
@@ -9299,7 +9299,7 @@
       <c r="J152" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="K152" s="123"/>
+      <c r="K152" s="98"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A153" s="54" t="s">
@@ -9341,33 +9341,33 @@
       <c r="K153" s="30"/>
     </row>
     <row r="155" spans="1:26" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="125" t="s">
+      <c r="A155" s="105" t="s">
         <v>423</v>
       </c>
-      <c r="B155" s="126"/>
-      <c r="C155" s="126"/>
-      <c r="D155" s="126"/>
-      <c r="E155" s="126"/>
-      <c r="F155" s="126"/>
+      <c r="B155" s="106"/>
+      <c r="C155" s="106"/>
+      <c r="D155" s="106"/>
+      <c r="E155" s="106"/>
+      <c r="F155" s="106"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A156" s="100" t="s">
+      <c r="A156" s="107" t="s">
         <v>333</v>
       </c>
-      <c r="B156" s="128" t="s">
+      <c r="B156" s="109" t="s">
         <v>334</v>
       </c>
-      <c r="C156" s="124" t="s">
+      <c r="C156" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="D156" s="124"/>
-      <c r="E156" s="124"/>
-      <c r="F156" s="124"/>
-      <c r="G156" s="124"/>
-      <c r="H156" s="124"/>
-      <c r="I156" s="124"/>
-      <c r="J156" s="124"/>
-      <c r="K156" s="124"/>
+      <c r="D156" s="111"/>
+      <c r="E156" s="111"/>
+      <c r="F156" s="111"/>
+      <c r="G156" s="111"/>
+      <c r="H156" s="111"/>
+      <c r="I156" s="111"/>
+      <c r="J156" s="111"/>
+      <c r="K156" s="111"/>
       <c r="L156" s="88"/>
       <c r="M156" s="88" t="s">
         <v>424</v>
@@ -9382,24 +9382,24 @@
       <c r="U156" s="88"/>
     </row>
     <row r="157" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="100"/>
-      <c r="B157" s="128"/>
-      <c r="C157" s="106" t="s">
+      <c r="A157" s="107"/>
+      <c r="B157" s="109"/>
+      <c r="C157" s="101" t="s">
         <v>335</v>
       </c>
-      <c r="D157" s="107"/>
-      <c r="E157" s="107"/>
-      <c r="F157" s="108"/>
-      <c r="G157" s="109" t="s">
+      <c r="D157" s="112"/>
+      <c r="E157" s="112"/>
+      <c r="F157" s="102"/>
+      <c r="G157" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="H157" s="110"/>
-      <c r="I157" s="110"/>
-      <c r="J157" s="111"/>
-      <c r="K157" s="122" t="s">
+      <c r="H157" s="113"/>
+      <c r="I157" s="113"/>
+      <c r="J157" s="104"/>
+      <c r="K157" s="97" t="s">
         <v>357</v>
       </c>
-      <c r="L157" s="122" t="s">
+      <c r="L157" s="97" t="s">
         <v>348</v>
       </c>
       <c r="M157" s="89" t="s">
@@ -9419,8 +9419,8 @@
       </c>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A158" s="101"/>
-      <c r="B158" s="129"/>
+      <c r="A158" s="108"/>
+      <c r="B158" s="110"/>
       <c r="C158" s="63" t="s">
         <v>339</v>
       </c>
@@ -9445,8 +9445,8 @@
       <c r="J158" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="K158" s="123"/>
-      <c r="L158" s="123"/>
+      <c r="K158" s="98"/>
+      <c r="L158" s="98"/>
       <c r="M158" s="63" t="s">
         <v>339</v>
       </c>
@@ -9633,19 +9633,42 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="L157:L158"/>
-    <mergeCell ref="E144:H144"/>
-    <mergeCell ref="I144:L144"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="I145:J145"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="C156:K156"/>
-    <mergeCell ref="C157:F157"/>
-    <mergeCell ref="G157:J157"/>
-    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="G111:J111"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="G151:J151"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="C150:K150"/>
+    <mergeCell ref="A131:R131"/>
+    <mergeCell ref="A143:L143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="A151:A152"/>
     <mergeCell ref="AG88:AL88"/>
     <mergeCell ref="T88:V88"/>
     <mergeCell ref="W88:X88"/>
@@ -9662,42 +9685,19 @@
     <mergeCell ref="A119:R119"/>
     <mergeCell ref="C110:K110"/>
     <mergeCell ref="A111:A112"/>
-    <mergeCell ref="G111:J111"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="G151:J151"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="C150:K150"/>
-    <mergeCell ref="A131:R131"/>
-    <mergeCell ref="A143:L143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="A109:J109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="L157:L158"/>
+    <mergeCell ref="E144:H144"/>
+    <mergeCell ref="I144:L144"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="C156:K156"/>
+    <mergeCell ref="C157:F157"/>
+    <mergeCell ref="G157:J157"/>
+    <mergeCell ref="K157:K158"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C62 OCX133 NTB133 NJF133 MZJ133 MPN133 MFR133 LVV133 LLZ133 KSH133 KIL133 JYP133 JOT133 JEX133 IVB133 ILF133 IBJ133 HRN133 HHR133 GXV133 GNZ133 GED133 FUH133 FKL133 LCD133 FAP133 EQT133 EGX133 DXB133 DNF133 DDJ133 CTN133 CJR133 BZV133 BPZ133 BGD133 AWH133 AML133 ACP133 ST133 IX133 WVJ133 WLN133 WBR133 VRV133 VHZ133 UYD133 UOH133 UEL133 TUP133 TKT133 TAX133 SRB133 SHF133 RXJ133 RNN133 RDR133 QTV133 QJZ133 QAD133 PQH133 PGL133 OWP133 OMT133 MPN121:MPN123 MZJ121:MZJ123 NJF121:NJF123 NTB121:NTB123 OCX121:OCX123 OMT121:OMT123 OWP121:OWP123 PGL121:PGL123 PQH121:PQH123 QAD121:QAD123 QJZ121:QJZ123 QTV121:QTV123 RDR121:RDR123 RNN121:RNN123 RXJ121:RXJ123 SHF121:SHF123 SRB121:SRB123 TAX121:TAX123 TKT121:TKT123 TUP121:TUP123 UEL121:UEL123 UOH121:UOH123 UYD121:UYD123 VHZ121:VHZ123 VRV121:VRV123 WBR121:WBR123 WLN121:WLN123 WVJ121:WVJ123 IX121:IX123 ST121:ST123 ACP121:ACP123 AML121:AML123 AWH121:AWH123 BGD121:BGD123 BPZ121:BPZ123 BZV121:BZV123 CJR121:CJR123 CTN121:CTN123 DDJ121:DDJ123 DNF121:DNF123 DXB121:DXB123 EGX121:EGX123 EQT121:EQT123 FAP121:FAP123 LCD121:LCD123 FKL121:FKL123 FUH121:FUH123 GED121:GED123 GNZ121:GNZ123 GXV121:GXV123 HHR121:HHR123 HRN121:HRN123 IBJ121:IBJ123 ILF121:ILF123 IVB121:IVB123 JEX121:JEX123 JOT121:JOT123 JYP121:JYP123 KIL121:KIL123 KSH121:KSH123 LLZ121:LLZ123 LVV121:LVV123 MFR121:MFR123 MZJ127:MZJ129 NJF127:NJF129 NTB127:NTB129 OCX127:OCX129 OMT127:OMT129 OWP127:OWP129 PGL127:PGL129 PQH127:PQH129 QAD127:QAD129 QJZ127:QJZ129 QTV127:QTV129 RDR127:RDR129 RNN127:RNN129 RXJ127:RXJ129 SHF127:SHF129 SRB127:SRB129 TAX127:TAX129 TKT127:TKT129 TUP127:TUP129 UEL127:UEL129 UOH127:UOH129 UYD127:UYD129 VHZ127:VHZ129 VRV127:VRV129 WBR127:WBR129 WLN127:WLN129 WVJ127:WVJ129 IX127:IX129 ST127:ST129 ACP127:ACP129 AML127:AML129 AWH127:AWH129 BGD127:BGD129 BPZ127:BPZ129 BZV127:BZV129 CJR127:CJR129 CTN127:CTN129 DDJ127:DDJ129 DNF127:DNF129 DXB127:DXB129 EGX127:EGX129 EQT127:EQT129 FAP127:FAP129 LCD127:LCD129 FKL127:FKL129 FUH127:FUH129 GED127:GED129 GNZ127:GNZ129 GXV127:GXV129 HHR127:HHR129 HRN127:HRN129 IBJ127:IBJ129 ILF127:ILF129 IVB127:IVB129 JEX127:JEX129 JOT127:JOT129 JYP127:JYP129 KIL127:KIL129 KSH127:KSH129 LLZ127:LLZ129 LVV127:LVV129 MFR127:MFR129 MPN127:MPN129">
